--- a/dispositivos.xlsx
+++ b/dispositivos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="dispositivos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="197">
   <si>
     <t>MAC_Address</t>
   </si>
@@ -208,6 +208,408 @@
   </si>
   <si>
     <t>157.55.183.132</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:9B</t>
+  </si>
+  <si>
+    <t>Cordaflex_BP029</t>
+  </si>
+  <si>
+    <t>10.56.181.100</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:91</t>
+  </si>
+  <si>
+    <t>Cordaflex_3</t>
+  </si>
+  <si>
+    <t>10.56.181.101</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:DE:E3</t>
+  </si>
+  <si>
+    <t>Cordaflex1_1002</t>
+  </si>
+  <si>
+    <t>10.56.181.102</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E4:7C</t>
+  </si>
+  <si>
+    <t>Cordaflex_Virtual</t>
+  </si>
+  <si>
+    <t>Tipo 2</t>
+  </si>
+  <si>
+    <t>10.68.181.232</t>
+  </si>
+  <si>
+    <t>7b4e5b87d0a3991b7147ac6eb4b153e60cb67c213704e9db36595a2670d908d0</t>
+  </si>
+  <si>
+    <t>868f355a6245eafd80ac68fea0542f34089e11f6620af1ea42857df84e6797c5</t>
+  </si>
+  <si>
+    <t>f3525b84b8d9850448f7a3b9f6a45b50c56d916f5ff92099582b35100d72e832</t>
+  </si>
+  <si>
+    <t>22304e1d9137a3aaed72d4a7c8acaacff662ce09377ebbb0e6cfcd847846712a</t>
+  </si>
+  <si>
+    <t>concdx9.condumex.com.mx:8443</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:78</t>
+  </si>
+  <si>
+    <t>Oficinas mantto</t>
+  </si>
+  <si>
+    <t>10.68.190.80</t>
+  </si>
+  <si>
+    <t>5bae15b3fd0ff22d6c910a7af402aca8a100a333e87cdbe562440a35e8dbc41a</t>
+  </si>
+  <si>
+    <t>conaserv-gral</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E8:1C</t>
+  </si>
+  <si>
+    <t>CT_1008</t>
+  </si>
+  <si>
+    <t>10.68.167.162</t>
+  </si>
+  <si>
+    <t>d8f6e75db63f0871a9b9ff0f10a749b0e0cf60649ca57dea3aea0d53e2e2bf95</t>
+  </si>
+  <si>
+    <t>sake.condumex.com.mx</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9D:1F</t>
+  </si>
+  <si>
+    <t>Arnelec3_090</t>
+  </si>
+  <si>
+    <t>10.56.199.102</t>
+  </si>
+  <si>
+    <t>d54742f02ea2e8173af524718c3ebb2f52027d450261f259fcf8e4494dc457b3</t>
+  </si>
+  <si>
+    <t>arnelecs.condumex.com.mx</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9B:64</t>
+  </si>
+  <si>
+    <t>Silao3</t>
+  </si>
+  <si>
+    <t>10.56.171.102</t>
+  </si>
+  <si>
+    <t>106b6c014ab0103fdb4bb57c1d01711d3acde0af85a333a027878fb452a323f0</t>
+  </si>
+  <si>
+    <t>ar4-srv-bacceso</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:96</t>
+  </si>
+  <si>
+    <t>3_Bajitos_BP0X</t>
+  </si>
+  <si>
+    <t>10.56.217.102</t>
+  </si>
+  <si>
+    <t>4ef43e20968aa82867cd9fe2bc487c0400ffb5a05131683a0c3d6c333a921353</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:7B:C4</t>
+  </si>
+  <si>
+    <t>2_Intermedios_BP062</t>
+  </si>
+  <si>
+    <t>10.56.217.101</t>
+  </si>
+  <si>
+    <t>d3ddda100ae873fbed31c42bd358f579a843f8e7a57c0f8b37251d03669dea76</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:7B:CE</t>
+  </si>
+  <si>
+    <t>1_Altos_BP061</t>
+  </si>
+  <si>
+    <t>10.56.217.100</t>
+  </si>
+  <si>
+    <t>1f478bd9980ee746dbb1d137dc444a28f7630607e2df3ca7b8393f47cb6748a9</t>
+  </si>
+  <si>
+    <t>48:B0:2D:07:6A:86</t>
+  </si>
+  <si>
+    <t>Disp1_condutel</t>
+  </si>
+  <si>
+    <t>10.56.217.105</t>
+  </si>
+  <si>
+    <t>fa852fe53cd9d2016bc76b9144224ab065e00f2331ee8ebd7444200148e7d585</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E4:6D</t>
+  </si>
+  <si>
+    <t>Disp3_condutel</t>
+  </si>
+  <si>
+    <t>10.56.217.104</t>
+  </si>
+  <si>
+    <t>3cb80bdebfa3df4c8495c9ea07f291a1a5563aff6f2dbca43db17eeb4dea3c0f</t>
+  </si>
+  <si>
+    <t>Disp2_condutel</t>
+  </si>
+  <si>
+    <t>10.56.217.103</t>
+  </si>
+  <si>
+    <t>f13585d1e2164a5e551904213c080ac584b599a66cc3b1bced9ddcadf61ba8f9</t>
+  </si>
+  <si>
+    <t>condutel-04.condumex.com.mx</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E4:34</t>
+  </si>
+  <si>
+    <t>Entrada_1014</t>
+  </si>
+  <si>
+    <t>10.56.161.101</t>
+  </si>
+  <si>
+    <t>bcbd9e087e4f28a66e21ca6d0a1f3013e93a369f0be887b31135ed945f10a931</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E8:31</t>
+  </si>
+  <si>
+    <t>Jurica_Salida2</t>
+  </si>
+  <si>
+    <t>10.56.161.100</t>
+  </si>
+  <si>
+    <t>f7f1f183e191a2e6b4fb6966c4d7e283ec76d29faf242bbfc6244a9cf6bd84a2</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9D:1B</t>
+  </si>
+  <si>
+    <t>Arnelec2_092</t>
+  </si>
+  <si>
+    <t>10.56.199.101</t>
+  </si>
+  <si>
+    <t>4b659a98c02d07e535bdb11f344120e88711584c2a146a0f8361eeae32db5e5b</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E1:71</t>
+  </si>
+  <si>
+    <t>Arnelec4_BP086</t>
+  </si>
+  <si>
+    <t>10.56.199.103</t>
+  </si>
+  <si>
+    <t>9ea62d24cf3e1b51cfb9cf796365201f325b4cfa6c33550c59febce144616d81</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9B:6F</t>
+  </si>
+  <si>
+    <t>Arnelec1_077</t>
+  </si>
+  <si>
+    <t>10.56.199.100</t>
+  </si>
+  <si>
+    <t>db0a2b41187b1d0c34f1cd380c361e102aa298207a964a711592109ad28708cf</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9A:19</t>
+  </si>
+  <si>
+    <t>JARAL-DE-BERRIOS-1</t>
+  </si>
+  <si>
+    <t>10.56.179.100</t>
+  </si>
+  <si>
+    <t>069475e88f7103bcd864ae0a5332b117d852ce8e8ffb704d983251a513a02a1a</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:80</t>
+  </si>
+  <si>
+    <t>JARAL-DE-BERRIOS-2</t>
+  </si>
+  <si>
+    <t>10.56.179.101</t>
+  </si>
+  <si>
+    <t>90859c13288697c1799d2e23e725ff8bf3ee8e162ef256be07c11e65bc4a2ecf</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:8B</t>
+  </si>
+  <si>
+    <t>OCAMPO-2</t>
+  </si>
+  <si>
+    <t>10.56.180.101</t>
+  </si>
+  <si>
+    <t>6d2b9566d7ab6d9c8d08ee31d1a581366155ec8be42674739205a9f3400bae6e</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:7B:D7</t>
+  </si>
+  <si>
+    <t>SANFELIPE2-1</t>
+  </si>
+  <si>
+    <t>10.56.194.100</t>
+  </si>
+  <si>
+    <t>d5cff7d9b4c5a8f38eef9cdb5433178df7340cc4165dd1bcfb3c72931aa9305d</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:85</t>
+  </si>
+  <si>
+    <t>SANFELIPE1-1</t>
+  </si>
+  <si>
+    <t>10.56.176.100</t>
+  </si>
+  <si>
+    <t>185271a7824439e9f2864a82a680d38b5f7b3e5d10bf2017f8dcfd4afbedaaa5</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:9A:27</t>
+  </si>
+  <si>
+    <t>San Diego 4</t>
+  </si>
+  <si>
+    <t>10.56.183.102</t>
+  </si>
+  <si>
+    <t>431e3259f5c6a7e9e92096ddcce00e8c2f389642114ca602e547aad2960df6cc</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:6E</t>
+  </si>
+  <si>
+    <t>San Diego 2</t>
+  </si>
+  <si>
+    <t>10.56.183.101</t>
+  </si>
+  <si>
+    <t>5003f826292f16761b57aa670638e5bd42f8f83a4de7c89405b031a30931e0e5</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:7B:65</t>
+  </si>
+  <si>
+    <t>San Diego 1</t>
+  </si>
+  <si>
+    <t>10.56.183.100</t>
+  </si>
+  <si>
+    <t>2372b421c55f70a1751b48213e887f6bb83152efda9c2e0c67cc854e1bb9422d</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:86</t>
+  </si>
+  <si>
+    <t>OCAMPO-4</t>
+  </si>
+  <si>
+    <t>10.56.180.102</t>
+  </si>
+  <si>
+    <t>be9d564e88434230c57fdf36bb308575d5ff6d5154397db42b4fcbb72e2e4b8f</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:7B:CD</t>
+  </si>
+  <si>
+    <t>OCAMPO-1</t>
+  </si>
+  <si>
+    <t>10.56.180.100</t>
+  </si>
+  <si>
+    <t>d272983508c4012409ec77faec42069c202802ee6e54583093fefee4b43a1b24</t>
+  </si>
+  <si>
+    <t>48:B0:2D:3D:99:7D</t>
+  </si>
+  <si>
+    <t>Silao 4</t>
+  </si>
+  <si>
+    <t>10.56.171.103</t>
+  </si>
+  <si>
+    <t>819cfd30e9ec0690d34d7a55928291770898d21f30ba0c6763f319c235854843</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E2:3B</t>
+  </si>
+  <si>
+    <t>Silao_1013</t>
+  </si>
+  <si>
+    <t>10.56.171.101</t>
+  </si>
+  <si>
+    <t>f9635e13f5ccdc1e3debc1388b589fda5c17ae85ea32024dba511b6fb3ef491c</t>
+  </si>
+  <si>
+    <t>48:B0:2D:15:E4:6B</t>
+  </si>
+  <si>
+    <t>Silao1_1006</t>
+  </si>
+  <si>
+    <t>10.56.171.100</t>
+  </si>
+  <si>
+    <t>0dae64dbd7a06250f2c60ab91eb9e060aa1e3df9352b82c810270f786d9d0f5b</t>
   </si>
 </sst>
 </file>
@@ -585,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,9 +998,9 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,8 +1325,791 @@
         <v>62</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A4:E6 B1:D1 B2:E2 B3:E3 A7:B7 E7" numberStoredAsText="1"/>
   </ignoredErrors>
